--- a/OSD litt.xlsx
+++ b/OSD litt.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\8. Optimisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\11. Rédaction\GitHub Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2BA349-F707-4DD8-9DCE-6C13A4B340CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D4F69B-18D3-48C3-BA7E-44AD81664F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OSD proj litterature" sheetId="1" r:id="rId1"/>
+    <sheet name="OSD proj literature" sheetId="1" r:id="rId1"/>
     <sheet name="OSD by scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="Ref" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OSD proj litterature'!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OSD proj literature'!$A$1:$E$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>Copper</t>
   </si>
@@ -97,6 +98,36 @@
   </si>
   <si>
     <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Pedneault, J., Majeau‐Bettez, G., Pauliuk, S., &amp; Margni, M. (2022). Sector‐specific scenarios for future stocks and flows of aluminum : An analysis based on shared socioeconomic pathways. Journal of Industrial Ecology, 26(5), 1728‑1746. https://doi.org/10.1111/jiec.13321</t>
+  </si>
+  <si>
+    <t>(Pedneault et al., 2022)</t>
+  </si>
+  <si>
+    <t>International Energy Agency. (2024). Critical minerals data explorer – Data tools. https://www.iea.org/data-and-statistics/data-tools/critical-minerals-data-explorer</t>
+  </si>
+  <si>
+    <t>(International Energy Agency, 2024)</t>
+  </si>
+  <si>
+    <t>Kermeli, K., Edelenbosch, O. Y., Crijns-Graus, W., Van Ruijven, B. J., Van Vuuren, D. P., &amp; Worrell, E. (2022). Improving material projections in Integrated Assessment Models : The use of a stock-based versus a flow-based approach for the iron and steel industry. Energy, 239, 122434. https://doi.org/10.1016/j.energy.2021.122434</t>
+  </si>
+  <si>
+    <t>(Kermeli et al., 2022)</t>
+  </si>
+  <si>
+    <t>(Rostek et al., 2023)</t>
+  </si>
+  <si>
+    <t>Rostek, L., Pirard, E., &amp; Loibl, A. (2023). The future availability of zinc : Potential contributions from recycling and necessary ones from mining. Resources, Conservation &amp; Recycling Advances, 19, 200166. https://doi.org/10.1016/j.rcradv.2023.200166</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
 </sst>
 </file>
@@ -107,7 +138,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +161,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +189,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -187,12 +232,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -237,8 +294,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -518,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,7 +600,7 @@
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -548,8 +616,11 @@
       <c r="E1" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
@@ -565,8 +636,11 @@
       <c r="E2" s="9">
         <v>2194322307.6923056</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -581,6 +655,9 @@
       </c>
       <c r="E3" s="14">
         <v>27790000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -591,10 +668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DE10C2-0033-4874-AC57-1684BDD05DCC}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,7 +679,7 @@
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
@@ -621,8 +698,11 @@
       <c r="F1" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -641,8 +721,11 @@
       <c r="F2" s="3">
         <v>71812435.304376259</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -661,8 +744,11 @@
       <c r="F3" s="4">
         <v>88471761.000000015</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -681,8 +767,11 @@
       <c r="F4" s="4">
         <v>72861135.309689313</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -701,8 +790,11 @@
       <c r="F5" s="4">
         <v>122565621.33335048</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -721,8 +813,11 @@
       <c r="F6" s="7">
         <v>222400</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,8 +836,11 @@
       <c r="F7" s="9">
         <v>217800</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -761,8 +859,11 @@
       <c r="F8" s="9">
         <v>216500</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -781,8 +882,11 @@
       <c r="F9" s="7">
         <v>24671000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
@@ -801,8 +905,11 @@
       <c r="F10" s="11">
         <v>22046000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
@@ -821,8 +928,11 @@
       <c r="F11" s="9">
         <v>21473000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -841,8 +951,11 @@
       <c r="F12" s="7">
         <v>3354000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -861,8 +974,11 @@
       <c r="F13" s="9">
         <v>3014000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -880,9 +996,77 @@
       </c>
       <c r="F14" s="13">
         <v>2935000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E66550-CC42-4554-84AF-7D82565A8001}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://doi.org/10.1111/jiec.13321" xr:uid="{1C1E5BED-CE29-40FA-993D-9506FF3B7A78}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.iea.org/data-and-statistics/data-tools/critical-minerals-data-explorer" xr:uid="{E0FDF851-20F7-4A62-9BAF-DA4E3D9B5023}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://doi.org/10.1016/j.energy.2021.122434" xr:uid="{68FC0414-DC44-469C-8F10-8F30A20A3FDC}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://doi.org/10.1016/j.rcradv.2023.200166" xr:uid="{AF030349-A6B7-4EB3-A2A9-92C9A85142CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>